--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/JOSE MARTINEZ.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/JOSE MARTINEZ.xlsx
@@ -11,10 +11,9 @@
     <x:sheet name="EKIPINTER" sheetId="4" r:id="rId4"/>
     <x:sheet name="TEKFLEET" sheetId="5" r:id="rId5"/>
     <x:sheet name="IAPI" sheetId="6" r:id="rId6"/>
-    <x:sheet name="PROCOTIZA" sheetId="7" r:id="rId7"/>
-    <x:sheet name="INBROKER" sheetId="8" r:id="rId8"/>
-    <x:sheet name="DECISION ENGINE" sheetId="9" r:id="rId9"/>
-    <x:sheet name="SMARTIX" sheetId="10" r:id="rId10"/>
+    <x:sheet name="INBROKER" sheetId="7" r:id="rId7"/>
+    <x:sheet name="DECISION ENGINE" sheetId="8" r:id="rId8"/>
+    <x:sheet name="SMARTIX" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
@@ -22,10 +21,9 @@
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EKIPINTER!$A$5:$H$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEKFLEET!$A$5:$J$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">IAPI!$A$5:$I$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PROCOTIZA!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -275,73 +273,64 @@
     <x:t>X729958</x:t>
   </x:si>
   <x:si>
-    <x:t>PROCOTIZA</x:t>
+    <x:t>INBROKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fecha Ultimo Login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLANCA ELIZABETH HERNANDEZ BECERRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X295751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTODIO SISTEMAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SISTEMAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brenda Stephanie Montes Navarrete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMONTES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERICK EDUARDO MORALES IBARRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMORALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREDINISSAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USUARIO DE BATCH EMISION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMARTIX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USR SMARTIX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VANIA LUCIA GUTIERREZ GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X745710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISION ENGINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Departamento</x:t>
   </x:si>
   <x:si>
     <x:t>Fecha de Creacion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTODIO IT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INBROKER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fecha Ultimo Login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLANCA ELIZABETH HERNANDEZ BECERRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X295751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTODIO SISTEMAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SISTEMAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brenda Stephanie Montes Navarrete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMONTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERICK EDUARDO MORALES IBARRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMORALES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREDINISSAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USUARIO DE BATCH EMISION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMARTIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USR SMARTIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VANIA LUCIA GUTIERREZ GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X745710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECISION ENGINE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Departamento</x:t>
   </x:si>
   <x:si>
     <x:t>DECISIONENG</x:t>
@@ -1885,175 +1874,6 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J8"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.853482" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.710625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.139196" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="D2" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>45208</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45352</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>45098</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45329</x:v>
-      </x:c>
-      <x:c r="H7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I7" s="3"/>
-      <x:c r="J7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>45098</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45355</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I8" s="3"/>
-      <x:c r="J8" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:K5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
   <x:dimension ref="A1:J11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -2079,7 +1899,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2109,10 +1929,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2126,22 +1946,22 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G6" s="5">
         <x:v>45355.7020854167</x:v>
@@ -2154,22 +1974,22 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G7" s="5">
         <x:v>45355.4602134259</x:v>
@@ -2182,22 +2002,22 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G8" s="5">
         <x:v>45343.7478762731</x:v>
@@ -2210,22 +2030,22 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G9" s="5">
         <x:v>44036.3246412037</x:v>
@@ -2238,22 +2058,22 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G10" s="5">
         <x:v>45350.4807617245</x:v>
@@ -2266,22 +2086,22 @@
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G11" s="5">
         <x:v>45352.3456720255</x:v>
@@ -2302,7 +2122,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2331,7 +2151,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -2352,7 +2172,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>7</x:v>
@@ -2361,7 +2181,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
@@ -2375,19 +2195,19 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="s">
+      <x:c r="E6" s="3" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>44428</x:v>
@@ -2400,19 +2220,19 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>44875</x:v>
@@ -2425,19 +2245,19 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>44875</x:v>
@@ -2450,19 +2270,19 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>44875</x:v>
@@ -2475,19 +2295,19 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F10" s="4">
         <x:v>44435</x:v>
@@ -2508,7 +2328,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2537,7 +2357,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -2567,13 +2387,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
         <x:v>14</x:v>
@@ -2581,22 +2401,22 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
@@ -2606,22 +2426,22 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
         <x:v>20</x:v>
@@ -2631,22 +2451,22 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G8" s="3" t="s">
         <x:v>20</x:v>
@@ -2656,22 +2476,22 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
         <x:v>20</x:v>
@@ -2681,22 +2501,22 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
         <x:v>20</x:v>
@@ -2706,22 +2526,22 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G11" s="3" t="s">
         <x:v>20</x:v>
